--- a/biology/Médecine/Pentalogie_de_Cantrell/Pentalogie_de_Cantrell.xlsx
+++ b/biology/Médecine/Pentalogie_de_Cantrell/Pentalogie_de_Cantrell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pentalogie de Cantrell (ou syndrome thoraco-abdominal) est un syndrome rare qui provoque des malformations impliquant le diaphragme, la paroi abdominale, le péricarde, le cœur et la partie inférieure du sternum[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pentalogie de Cantrell (ou syndrome thoraco-abdominal) est un syndrome rare qui provoque des malformations impliquant le diaphragme, la paroi abdominale, le péricarde, le cœur et la partie inférieure du sternum.
 Le syndrome a été caractérisé en 1958.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome est plus précisément lié à cinq constatations caractéristiques :
 omphalocèle ;
@@ -549,9 +563,11 @@
           <t>Cas célèbres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon une étude publiée dans The Lancet en juin 2010[2], sainte Rose de Viterbe, « sainte patronne des peuples en exil » serait décédée entre 18 et 19 ans de cette maladie. Des études précédentes de sa momie avaient imputé son décès (1251) à la tuberculose. Mais des analyses d'éléments de tissu des poumons ont infirmé cette hypothèse. Une radiographie du cœur a en revanche révélé « un défaut structurel dans le ventricule gauche » caractéristique de pentalogie de Cantrell. Une thrombose cardiaque consécutive à ce défaut est « la cause la plus probable de la mort » selon les chercheurs. Le diagnostic a toutefois été contesté en septembre 2010[3] par un chercheur français, selon qui rien ne prouve que le défaut structurel soit bien anté-mortem.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon une étude publiée dans The Lancet en juin 2010, sainte Rose de Viterbe, « sainte patronne des peuples en exil » serait décédée entre 18 et 19 ans de cette maladie. Des études précédentes de sa momie avaient imputé son décès (1251) à la tuberculose. Mais des analyses d'éléments de tissu des poumons ont infirmé cette hypothèse. Une radiographie du cœur a en revanche révélé « un défaut structurel dans le ventricule gauche » caractéristique de pentalogie de Cantrell. Une thrombose cardiaque consécutive à ce défaut est « la cause la plus probable de la mort » selon les chercheurs. Le diagnostic a toutefois été contesté en septembre 2010 par un chercheur français, selon qui rien ne prouve que le défaut structurel soit bien anté-mortem.
 </t>
         </is>
       </c>
